--- a/Data/Transitions/19261933Translation.xlsx
+++ b/Data/Transitions/19261933Translation.xlsx
@@ -31,13 +31,13 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.022467765092163004, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.02244441000314986, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -151,7 +151,7 @@
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -250,16 +250,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.0022166395744052016}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7420137865000616}</t>
+    <t>{171.0: 0.74484948963753}</t>
   </si>
   <si>
     <t>{172.0: 1.0, 81.0: 0.004697040864255519}</t>
@@ -355,7 +355,7 @@
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -367,7 +367,7 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.003679774442674422, 593.0: 0.0009526634095139165}</t>
+    <t>{184.0: 1.0, 171.0: 0.003652113896148698, 593.0: 0.0009523944646077748}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 1.0, 857.0: 0.005216903786698143}</t>
+    <t>{204.0: 1.0, 857.0: 0.005215228799219358}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -415,10 +415,10 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -475,10 +475,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9751240579785078}</t>
+    <t>{246.0: 0.975143601558792}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -547,7 +550,7 @@
     <t>{265.0: 0.7947379633574776}</t>
   </si>
   <si>
-    <t>{267.0: 0.9917627677100495}</t>
+    <t>{267.0: 0.9914588315681585}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -574,10 +577,10 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9602417730020147}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 757.0: 0.02934816187828236}</t>
+    <t>{277.0: 0.9600539811066127}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 757.0: 0.03518518518518519}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -601,13 +604,13 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -685,7 +688,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -700,13 +703,10 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -724,10 +724,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6840894291295854}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.30840026047319297}</t>
+    <t>{404.0: 0.6812806587245971}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31114225648213034}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.9929952794274403}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{409.0: 0.9931527240250074}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29745909272316085}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7025409072768392}</t>
+    <t>{431.0: 0.2216275151154723}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7783724848845277}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -832,7 +832,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7693786822363734}</t>
+    <t>{492.0: 0.7694147161571426}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7534836156939286}</t>
+    <t>{580.0: 0.7526217740559197}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9980101878067787}</t>
+    <t>{593.0: 0.9980141594624873}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1078,10 +1078,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,10 +1120,10 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
   </si>
   <si>
     <t>{614.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009234948281437206, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009289641903231521, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1204,13 +1204,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1246,16 +1246,16 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.03038046564452016}</t>
-  </si>
-  <si>
-    <t>{696.0: 1.0, 492.0: 0.0062607668536413755}</t>
+    <t>{695.0: 1.0, 857.0: 0.030402045745134252}</t>
+  </si>
+  <si>
+    <t>{696.0: 1.0, 492.0: 0.0062247329328722}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9978908188585608}</t>
+    <t>{698.0: 0.9978753983628069}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9964349376114082}</t>
+    <t>{702.0: 0.9964323938637174}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1279,10 +1279,10 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24651638430607126}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24737822594408024}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1300,7 +1300,7 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1312,13 +1312,13 @@
     <t>{737.0: 1.0}</t>
   </si>
   <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.00025003983200685086}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.00024974086224936775}</t>
   </si>
   <si>
     <t>{741.0: 0.9931837546151662}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.4164349706518381}</t>
+    <t>{757.0: 0.30037037037037034}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1411,7 +1411,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 1.0, 757.0: 0.5542168674698795}</t>
+    <t>{773.0: 1.0, 757.0: 0.6644444444444444}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.0012346422691787672}</t>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.0012332833854857683}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1510,13 +1510,13 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9644026305687817}</t>
+    <t>{857.0: 0.9643827254556464}</t>
   </si>
   <si>
     <t>{858.0: 1.0, 543.0: 0.018817581800308944}</t>
@@ -1555,7 +1555,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1621,7 +1621,7 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9338766944124358}</t>
+    <t>{922.0: 0.9351039605965444}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.42257919534500454}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.5774208046549956}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.43136039117200653}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.5686396088279935}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,10 +1675,10 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1687,7 +1687,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.3506731946144431}</t>
@@ -1723,7 +1723,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1753,7 +1753,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.995576199955762}</t>
+    <t>{992.0: 0.9955840141311548}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841025}</t>
   </si>
   <si>
-    <t>{46.0: 0.900252841273, 246.0: 0.05619714646774235, 681.0: 0.010181063660729604, 741.0: 0.007404409935076077, 789.0: 0.011723649063870455, 90.0: 0.014240889599581853}</t>
+    <t>{46.0: 0.9002528412729998, 246.0: 0.05619714646774235, 681.0: 0.010181063660729609, 741.0: 0.007404409935076078, 789.0: 0.011723649063870457, 90.0: 0.014240889599581853}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1795,10 +1795,10 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9982664971686122, 86.0: 0.001733502831387958}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487132}</t>
+    <t>{107.0: 0.9982664971686118, 86.0: 0.001733502831387958}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645128, 110.0: 0.007528935835487133}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1810,7 +1810,7 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9990500316656112, 975.0: 0.0009499683343888536}</t>
+    <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{165.0: 0.9867533423279774, 914.0: 0.013246657672022568}</t>
@@ -1819,34 +1819,34 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101257}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9851907854825456, 171.0: 0.01140669665423573, 593.0: 0.003402517863218782}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504862}</t>
+    <t>{172.0: 0.9946275071633237, 81.0: 0.0053724928366762174}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101254}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9851611849546508, 171.0: 0.0114270102005864, 593.0: 0.0034118048447628795}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9946682464454977, 857.0: 0.00533175355450237}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9783393501805056, 681.0: 0.021660649819494584}</t>
+    <t>{212.0: 0.9783393501805054, 681.0: 0.021660649819494584}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717173, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.900153609831029, 999.0: 0.0998463901689708}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
+    <t>{218.0: 0.9891098484848485, 409.0: 0.010890151515151516}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.00761904761904762}</t>
   </si>
   <si>
     <t>{240.0: 0.9978021978021978, 241.0: 0.002197802197802198}</t>
@@ -1876,7 +1876,7 @@
     <t>{278.0: 0.9753822233739311, 757.0: 0.02461777662606893}</t>
   </si>
   <si>
-    <t>{286.0: 0.9156799425905991, 909.0: 0.0843200574094008}</t>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.08388363376762449}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -1885,7 +1885,7 @@
     <t>{306.0: 0.9617261904761905, 142.0: 0.03827380952380952}</t>
   </si>
   <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616964}</t>
@@ -1894,13 +1894,13 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843467, 476.0: 0.010409572915653274}</t>
+    <t>{402.0: 0.9895904270843466, 476.0: 0.010409572915653274}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.3656576480042861, 404.0: 0.6343423519957139}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -1912,7 +1912,7 @@
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
+    <t>{419.0: 0.9852607709750566, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -1939,7 +1939,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.9667784212130447, 211.0: 0.0332215787869552}</t>
+    <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -1975,7 +1975,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.001902602115596461, 789.0: 0.013751918802082352}</t>
   </si>
   <si>
-    <t>{619.0: 0.986706497386109, 887.0: 0.013293502613890963}</t>
+    <t>{619.0: 0.9866666666666667, 887.0: 0.013333333333333334}</t>
   </si>
   <si>
     <t>{681.0: 1.0}</t>
@@ -1984,10 +1984,10 @@
     <t>{683.0: 0.9892029215624007, 698.0: 0.010797078437599238}</t>
   </si>
   <si>
-    <t>{695.0: 0.9182582123758595, 857.0: 0.08174178762414057}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{695.0: 0.9183829138062549, 857.0: 0.08161708619374523}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372272, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1999,13 +1999,13 @@
     <t>{707.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285068, 888.0: 0.030542986425339366}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554324, 888.0: 0.02993348115299335}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
@@ -2020,19 +2020,19 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968034}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9990364541512767, 246.0: 0.0009635458487233015}</t>
-  </si>
-  <si>
-    <t>{843.0: 0.9833994947672321, 264.0: 0.016600505232767952}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.9943369513921662, 707.0: 0.005663048607833884}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235837}</t>
+    <t>{773.0: 0.8230245634803195, 757.0: 0.17697543651968037}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9990364541512766, 246.0: 0.0009635458487233015}</t>
+  </si>
+  <si>
+    <t>{843.0: 0.983399494767232, 264.0: 0.016600505232767952}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.994336951392166, 707.0: 0.005663048607833884}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235835}</t>
   </si>
   <si>
     <t>{853.0: 0.9988155121756118, 91.0: 0.0011844878243881427}</t>
@@ -2041,16 +2041,16 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.999269920734251, 253.0: 0.0007300792657488527}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9992699207342512, 253.0: 0.0007300792657488527}</t>
   </si>
   <si>
     <t>{863.0: 0.972273998136067, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257867, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2062,16 +2062,16 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.2272538254611412}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955246, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.7844950575079682, 930.0: 0.21550494249203167}</t>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.2270600978914214, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.7853435345504988, 930.0: 0.21465646544950104}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
@@ -2080,13 +2080,13 @@
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.9937323722970856, 702.0: 0.006267627702914447}</t>
-  </si>
-  <si>
-    <t>{934.0: 0.9748517200474495, 5.0: 0.025148279952550416}</t>
-  </si>
-  <si>
-    <t>{937.0: 0.9930522596635553, 171.0: 0.0033101741988785177, 593.0: 0.003637566137566138}</t>
+    <t>{933.0: 0.9937616968184654, 702.0: 0.006238303181534623}</t>
+  </si>
+  <si>
+    <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
+  </si>
+  <si>
+    <t>{937.0: 0.9930546558837803, 171.0: 0.003310182186279268, 593.0: 0.003635161929940515}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438814, 975.0: 0.005888376856118792}</t>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4166,29 +4166,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>613</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4243,29 +4243,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>614</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>614</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4364,51 +4364,51 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>615</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>617</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4485,40 +4485,40 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>618</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>619</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4584,51 +4584,51 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>620</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>620</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>621</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4804,29 +4804,29 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>622</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>622</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4892,29 +4892,29 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>623</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
+        <v>623</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
